--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/06 Ejemplo Registro Reunión Daily Standupxlsx.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/06 Ejemplo Registro Reunión Daily Standupxlsx.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="3pGWY4RvewzU9r+0BaWdN3Jq5dGVPjTU5O6OgYQ+s4Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ZO+PzmbQTg+9GPe5FV3Lnho0g7VFNmsQ1gkG2Nb8P60="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="64">
   <si>
     <t xml:space="preserve">Standup Participantes </t>
   </si>
@@ -60,67 +60,76 @@
     <t>¿Qué completaste ayer?</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Pruebas de consultas geoespaciales.</t>
   </si>
   <si>
-    <t>Reunión inicial y recopilación de requerimientos.</t>
+    <t>Crear Bd de pruebas para el desarrollo</t>
   </si>
   <si>
-    <t>Análisis de requerimientos y definición de objetivos.</t>
+    <t>Verificar la integracion y datos en BD</t>
   </si>
   <si>
-    <t>Documentación de requisitos funcionales.</t>
+    <t>Corregir registro de bomberos</t>
   </si>
   <si>
-    <t>Validación del documento de requerimientos.</t>
+    <t>Arreglo de vistas en Bombero y Residente</t>
   </si>
   <si>
-    <t>Revisión final y cierre de documentación inicial.</t>
+    <t>Correción de coordenadas en grifos</t>
   </si>
   <si>
-    <t>Creación de estructura base en Figma.</t>
+    <t>Mejora de vistas</t>
   </si>
   <si>
-    <t>Diseño de pantallas principales.</t>
+    <t>Validar datos en Bd y registros en Apps</t>
   </si>
   <si>
-    <t>Revisión y ajuste de diseño con feedback.</t>
+    <t>Corregir problemas en registros</t>
   </si>
   <si>
-    <t>Desarrollo de primera versión del modelo de base de datos.</t>
+    <t>Validar datos y registros</t>
   </si>
   <si>
-    <t>Revison final de mockups y modelo BD.</t>
+    <t xml:space="preserve">Correción en Accesos </t>
   </si>
   <si>
-    <t>Corrección visual de mockups en Figma.</t>
+    <t>Pruebas de navegación</t>
   </si>
   <si>
-    <t>Nuevas correciones a modelo de base de datos.</t>
+    <t>Arreglos en diseños y orden</t>
   </si>
   <si>
-    <t>Creación de la base de datos en Supabase.</t>
+    <t>Integracion con BD real</t>
   </si>
   <si>
-    <t>Carga inicial de tablas y pruebas de conexión.</t>
+    <t>Ajustes de tipado</t>
   </si>
   <si>
-    <t>Investigación de datos geográficos y coordenadas.</t>
+    <t>Corrección de registro de domicilio</t>
   </si>
   <si>
-    <t>Limpieza y normalización de datos de comunas.</t>
+    <t>Corrección en asignacion de coordenada</t>
   </si>
   <si>
-    <t>Carga de datos geográficos en Supabase.</t>
+    <t>Validación de datos en BD</t>
   </si>
   <si>
-    <t>Pruebas de consultas geoespaciales.</t>
+    <t>Validación de vistas</t>
   </si>
   <si>
     <t>Revisión final e integración completa con Supabase.</t>
   </si>
   <si>
     <t>¿Qué te comprometes hacer hoy?</t>
+  </si>
+  <si>
+    <t>Corrección de coordenadas en grifos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrección en Accesos </t>
+  </si>
+  <si>
+    <t>Revisión de detalles</t>
   </si>
   <si>
     <t>¿Cuándo crees que terminaras la tarea?</t>
@@ -135,10 +144,70 @@
     <t>No</t>
   </si>
   <si>
-    <t>Participante 2</t>
+    <t>Ignacio Pinares</t>
   </si>
   <si>
-    <t>Participante 3</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Registro de bombero</t>
+  </si>
+  <si>
+    <t>Conexion con la app de residente</t>
+  </si>
+  <si>
+    <t>Busqueda de direccion</t>
+  </si>
+  <si>
+    <t>Ver los detalles de la direccion</t>
+  </si>
+  <si>
+    <t>Visualizacion de informacion de domicilio</t>
+  </si>
+  <si>
+    <t>Visualizacion de informacion de la vivienda</t>
+  </si>
+  <si>
+    <t>Visualizacion de informacion de los integrantes</t>
+  </si>
+  <si>
+    <t>Visualizacion de informacion de las mascotas</t>
+  </si>
+  <si>
+    <t>Registro de grifos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validacion del registro </t>
+  </si>
+  <si>
+    <t>Asociación con comuna</t>
+  </si>
+  <si>
+    <t>Visualizacion de los estados de los grifos</t>
+  </si>
+  <si>
+    <t>Revision de la conexicion con la App de bomberos y App de residentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arreglos menores de diseño </t>
+  </si>
+  <si>
+    <t>Responsivo en ambas app</t>
+  </si>
+  <si>
+    <t>Optimizacion de las app</t>
+  </si>
+  <si>
+    <t>Conexion con supabase</t>
+  </si>
+  <si>
+    <t>Verificacion de correo y recuperacion de contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba de apk </t>
+  </si>
+  <si>
+    <t>Revision generales de las app</t>
   </si>
 </sst>
 </file>
@@ -149,7 +218,7 @@
     <numFmt numFmtId="164" formatCode="&quot;  &quot;mmmm&quot; - &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="ddd&quot;, &quot;d&quot;  &quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -183,10 +252,6 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF606060"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -290,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -318,17 +383,14 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,24 +814,26 @@
         <v>22</v>
       </c>
       <c r="L4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="11"/>
       <c r="S4" s="14" t="s">
         <v>29</v>
       </c>
@@ -782,7 +846,7 @@
       <c r="V4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="X4" s="11"/>
@@ -808,7 +872,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>20</v>
@@ -820,24 +884,26 @@
         <v>22</v>
       </c>
       <c r="K5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="M5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="P5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="Q5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="11"/>
       <c r="R5" s="14" t="s">
         <v>29</v>
       </c>
@@ -851,7 +917,7 @@
         <v>32</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -862,67 +928,67 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -933,67 +999,67 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -1003,32 +1069,72 @@
       <c r="AB7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>39</v>
+      <c r="A8" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
+      <c r="C8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
@@ -1040,26 +1146,66 @@
       <c r="B9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
+      <c r="C9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
@@ -1069,28 +1215,68 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
@@ -1100,28 +1286,68 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
@@ -1130,12 +1356,8 @@
       <c r="AB11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -1164,9 +1386,8 @@
       <c r="AB12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1195,9 +1416,8 @@
       <c r="AB13" s="11"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -1226,9 +1446,8 @@
       <c r="AB14" s="11"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1257,8 +1476,8 @@
       <c r="AB15" s="11"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1287,8 +1506,8 @@
       <c r="AB16" s="11"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -6986,216 +7205,13 @@
       <c r="AA206" s="11"/>
       <c r="AB206" s="11"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
-      <c r="H207" s="11"/>
-      <c r="I207" s="11"/>
-      <c r="J207" s="11"/>
-      <c r="K207" s="11"/>
-      <c r="L207" s="11"/>
-      <c r="M207" s="11"/>
-      <c r="N207" s="11"/>
-      <c r="O207" s="11"/>
-      <c r="P207" s="11"/>
-      <c r="Q207" s="11"/>
-      <c r="R207" s="11"/>
-      <c r="S207" s="11"/>
-      <c r="T207" s="11"/>
-      <c r="U207" s="11"/>
-      <c r="V207" s="11"/>
-      <c r="W207" s="11"/>
-      <c r="X207" s="11"/>
-      <c r="Y207" s="11"/>
-      <c r="Z207" s="11"/>
-      <c r="AA207" s="11"/>
-      <c r="AB207" s="11"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
-      <c r="E208" s="11"/>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
-      <c r="H208" s="11"/>
-      <c r="I208" s="11"/>
-      <c r="J208" s="11"/>
-      <c r="K208" s="11"/>
-      <c r="L208" s="11"/>
-      <c r="M208" s="11"/>
-      <c r="N208" s="11"/>
-      <c r="O208" s="11"/>
-      <c r="P208" s="11"/>
-      <c r="Q208" s="11"/>
-      <c r="R208" s="11"/>
-      <c r="S208" s="11"/>
-      <c r="T208" s="11"/>
-      <c r="U208" s="11"/>
-      <c r="V208" s="11"/>
-      <c r="W208" s="11"/>
-      <c r="X208" s="11"/>
-      <c r="Y208" s="11"/>
-      <c r="Z208" s="11"/>
-      <c r="AA208" s="11"/>
-      <c r="AB208" s="11"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-      <c r="E209" s="11"/>
-      <c r="F209" s="11"/>
-      <c r="G209" s="11"/>
-      <c r="H209" s="11"/>
-      <c r="I209" s="11"/>
-      <c r="J209" s="11"/>
-      <c r="K209" s="11"/>
-      <c r="L209" s="11"/>
-      <c r="M209" s="11"/>
-      <c r="N209" s="11"/>
-      <c r="O209" s="11"/>
-      <c r="P209" s="11"/>
-      <c r="Q209" s="11"/>
-      <c r="R209" s="11"/>
-      <c r="S209" s="11"/>
-      <c r="T209" s="11"/>
-      <c r="U209" s="11"/>
-      <c r="V209" s="11"/>
-      <c r="W209" s="11"/>
-      <c r="X209" s="11"/>
-      <c r="Y209" s="11"/>
-      <c r="Z209" s="11"/>
-      <c r="AA209" s="11"/>
-      <c r="AB209" s="11"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
-      <c r="H210" s="11"/>
-      <c r="I210" s="11"/>
-      <c r="J210" s="11"/>
-      <c r="K210" s="11"/>
-      <c r="L210" s="11"/>
-      <c r="M210" s="11"/>
-      <c r="N210" s="11"/>
-      <c r="O210" s="11"/>
-      <c r="P210" s="11"/>
-      <c r="Q210" s="11"/>
-      <c r="R210" s="11"/>
-      <c r="S210" s="11"/>
-      <c r="T210" s="11"/>
-      <c r="U210" s="11"/>
-      <c r="V210" s="11"/>
-      <c r="W210" s="11"/>
-      <c r="X210" s="11"/>
-      <c r="Y210" s="11"/>
-      <c r="Z210" s="11"/>
-      <c r="AA210" s="11"/>
-      <c r="AB210" s="11"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="11"/>
-      <c r="F211" s="11"/>
-      <c r="G211" s="11"/>
-      <c r="H211" s="11"/>
-      <c r="I211" s="11"/>
-      <c r="J211" s="11"/>
-      <c r="K211" s="11"/>
-      <c r="L211" s="11"/>
-      <c r="M211" s="11"/>
-      <c r="N211" s="11"/>
-      <c r="O211" s="11"/>
-      <c r="P211" s="11"/>
-      <c r="Q211" s="11"/>
-      <c r="R211" s="11"/>
-      <c r="S211" s="11"/>
-      <c r="T211" s="11"/>
-      <c r="U211" s="11"/>
-      <c r="V211" s="11"/>
-      <c r="W211" s="11"/>
-      <c r="X211" s="11"/>
-      <c r="Y211" s="11"/>
-      <c r="Z211" s="11"/>
-      <c r="AA211" s="11"/>
-      <c r="AB211" s="11"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
-      <c r="H212" s="11"/>
-      <c r="I212" s="11"/>
-      <c r="J212" s="11"/>
-      <c r="K212" s="11"/>
-      <c r="L212" s="11"/>
-      <c r="M212" s="11"/>
-      <c r="N212" s="11"/>
-      <c r="O212" s="11"/>
-      <c r="P212" s="11"/>
-      <c r="Q212" s="11"/>
-      <c r="R212" s="11"/>
-      <c r="S212" s="11"/>
-      <c r="T212" s="11"/>
-      <c r="U212" s="11"/>
-      <c r="V212" s="11"/>
-      <c r="W212" s="11"/>
-      <c r="X212" s="11"/>
-      <c r="Y212" s="11"/>
-      <c r="Z212" s="11"/>
-      <c r="AA212" s="11"/>
-      <c r="AB212" s="11"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
-      <c r="E213" s="11"/>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
-      <c r="H213" s="11"/>
-      <c r="I213" s="11"/>
-      <c r="J213" s="11"/>
-      <c r="K213" s="11"/>
-      <c r="L213" s="11"/>
-      <c r="M213" s="11"/>
-      <c r="N213" s="11"/>
-      <c r="O213" s="11"/>
-      <c r="P213" s="11"/>
-      <c r="Q213" s="11"/>
-      <c r="R213" s="11"/>
-      <c r="S213" s="11"/>
-      <c r="T213" s="11"/>
-      <c r="U213" s="11"/>
-      <c r="V213" s="11"/>
-      <c r="W213" s="11"/>
-      <c r="X213" s="11"/>
-      <c r="Y213" s="11"/>
-      <c r="Z213" s="11"/>
-      <c r="AA213" s="11"/>
-      <c r="AB213" s="11"/>
-    </row>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
     <row r="214" ht="15.75" customHeight="1"/>
     <row r="215" ht="15.75" customHeight="1"/>
     <row r="216" ht="15.75" customHeight="1"/>
@@ -7969,25 +7985,17 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:AA1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="O2:U2"/>
-    <mergeCell ref="C1:AA1"/>
     <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
